--- a/data/trans_orig/P21D4_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>176646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>166245</v>
+        <v>166511</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184953</v>
+        <v>185313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8944345207022556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8417669517229786</v>
+        <v>0.8431137320579758</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9364965111771779</v>
+        <v>0.9383167202873661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>325</v>
@@ -762,19 +762,19 @@
         <v>234284</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>224446</v>
+        <v>224250</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242978</v>
+        <v>242178</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8706958195072046</v>
+        <v>0.8706958195072048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.834132770946054</v>
+        <v>0.8334030399831618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.903005273466107</v>
+        <v>0.9000313614348928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>495</v>
@@ -783,19 +783,19 @@
         <v>410931</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>395241</v>
+        <v>397247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>422833</v>
+        <v>423578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8807441788911838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8471175587164818</v>
+        <v>0.8514166474915409</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9062553360037175</v>
+        <v>0.9078520381205374</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>18429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10951</v>
+        <v>10731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29196</v>
+        <v>28822</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0933144501781135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05545180578104766</v>
+        <v>0.05433512152215281</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1478325682946456</v>
+        <v>0.1459388320918441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -833,19 +833,19 @@
         <v>24741</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18140</v>
+        <v>18574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32964</v>
+        <v>33208</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09194590139174957</v>
+        <v>0.09194590139174959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06741739998467403</v>
+        <v>0.06902796990934536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1225085639064957</v>
+        <v>0.123415069872324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -854,19 +854,19 @@
         <v>43170</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33233</v>
+        <v>32570</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57441</v>
+        <v>55925</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09252519467013501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07122755966805358</v>
+        <v>0.06980773776702413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1231128208481303</v>
+        <v>0.119862677523277</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2420</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7068</v>
+        <v>7754</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0122510291196309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002642889624112355</v>
+        <v>0.002659378784241656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03578944897393382</v>
+        <v>0.03926220546087266</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>4776</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1676</v>
+        <v>1588</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10209</v>
+        <v>9954</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.01775039279218361</v>
+        <v>0.01775039279218362</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006227002430603285</v>
+        <v>0.00590145725578145</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03794159200561901</v>
+        <v>0.03699243800624771</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -925,19 +925,19 @@
         <v>7196</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3346</v>
+        <v>3476</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13582</v>
+        <v>13832</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01542256608797748</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007170903851590256</v>
+        <v>0.007449719600503921</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02911002119984923</v>
+        <v>0.02964632665624554</v>
       </c>
     </row>
     <row r="7">
@@ -967,19 +967,19 @@
         <v>5276</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2411</v>
+        <v>2088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12472</v>
+        <v>11835</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01960788630886215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008959964988084986</v>
+        <v>0.007761150374171573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04634932841508626</v>
+        <v>0.04398480435588614</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -988,19 +988,19 @@
         <v>5276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2222</v>
+        <v>2252</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11441</v>
+        <v>12395</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01130806035070358</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004762013095803181</v>
+        <v>0.00482600968789653</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02452170022679626</v>
+        <v>0.02656671963338574</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>371073</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>357745</v>
+        <v>355814</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>380265</v>
+        <v>380371</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9367749152843275</v>
+        <v>0.9367749152843277</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9031266923178758</v>
+        <v>0.8982537774088057</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9599779114236576</v>
+        <v>0.9602454438361047</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>625</v>
@@ -1113,19 +1113,19 @@
         <v>435496</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>423446</v>
+        <v>424378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>444956</v>
+        <v>445889</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9085197663965463</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8833808256597339</v>
+        <v>0.885324955765137</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9282537755560994</v>
+        <v>0.930200017036737</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>969</v>
@@ -1134,19 +1134,19 @@
         <v>806570</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>789347</v>
+        <v>790258</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>820720</v>
+        <v>819105</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.9213042541693777</v>
+        <v>0.9213042541693778</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9016319696449709</v>
+        <v>0.9026723021392995</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9374670150850745</v>
+        <v>0.9356230226653198</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>19529</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11419</v>
+        <v>11381</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33264</v>
+        <v>34025</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04930091276453355</v>
+        <v>0.04930091276453356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02882744896772405</v>
+        <v>0.02873197977089548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08397453366556069</v>
+        <v>0.08589642687951456</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1184,19 +1184,19 @@
         <v>32076</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23864</v>
+        <v>23173</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42673</v>
+        <v>42404</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06691696258782574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04978448440585794</v>
+        <v>0.04834199451716564</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08902369008254563</v>
+        <v>0.08846126429901507</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -1205,19 +1205,19 @@
         <v>51605</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39442</v>
+        <v>41206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67891</v>
+        <v>67117</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05894630299350096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04505288213123585</v>
+        <v>0.04706758545302352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07754823520351392</v>
+        <v>0.07666447829892985</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>4521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1613</v>
+        <v>1642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10559</v>
+        <v>10296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01141296410527721</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004072964823440839</v>
+        <v>0.00414617093786099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02665603918089671</v>
+        <v>0.0259915217130749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1255,19 +1255,19 @@
         <v>4973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2366</v>
+        <v>2338</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9415</v>
+        <v>9682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01037463242485161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004935391993298031</v>
+        <v>0.004877407630752471</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01964074754651156</v>
+        <v>0.02019845516300193</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1276,19 +1276,19 @@
         <v>9494</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5193</v>
+        <v>5098</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15907</v>
+        <v>15520</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01084444197090164</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005931910344121241</v>
+        <v>0.00582268192247899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01817001117811876</v>
+        <v>0.01772786202817998</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5233</v>
+        <v>4093</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002511207845861575</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01321121164908837</v>
+        <v>0.01033300836590919</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1326,19 +1326,19 @@
         <v>6801</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3718</v>
+        <v>3328</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12513</v>
+        <v>12269</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01418863859077637</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007756097021890207</v>
+        <v>0.006942893524012166</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02610421829484648</v>
+        <v>0.02559497524120146</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1347,19 +1347,19 @@
         <v>7796</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3949</v>
+        <v>4261</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13106</v>
+        <v>12895</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008905000866219592</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004510767892604716</v>
+        <v>0.004867170372482285</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01497038427036328</v>
+        <v>0.01472931247649374</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>392037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>382605</v>
+        <v>383131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>398874</v>
+        <v>398953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9608750728396315</v>
+        <v>0.9608750728396316</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9377568277324688</v>
+        <v>0.9390456353289154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9776321694245328</v>
+        <v>0.9778266977658093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>570</v>
@@ -1472,19 +1472,19 @@
         <v>400065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>386318</v>
+        <v>386773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>410097</v>
+        <v>409184</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9209394366986899</v>
+        <v>0.9209394366986901</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8892946481506425</v>
+        <v>0.8903402665536082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9440314308909946</v>
+        <v>0.9419298375151426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>939</v>
@@ -1493,19 +1493,19 @@
         <v>792102</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>775718</v>
+        <v>776661</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>804614</v>
+        <v>804911</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9402812438109091</v>
+        <v>0.9402812438109092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9208315948084874</v>
+        <v>0.9219513442180277</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9551335645124684</v>
+        <v>0.9554858493538161</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>11766</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5959</v>
+        <v>6298</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20662</v>
+        <v>20191</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02883882879718312</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01460451971032779</v>
+        <v>0.01543678213094252</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05064136736768281</v>
+        <v>0.04948729550764083</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>39</v>
@@ -1543,19 +1543,19 @@
         <v>31478</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21994</v>
+        <v>22782</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44254</v>
+        <v>45602</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07246194615857474</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05062866906142126</v>
+        <v>0.0524435892330037</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1018716235181162</v>
+        <v>0.1049743499273542</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>51</v>
@@ -1564,19 +1564,19 @@
         <v>43244</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31203</v>
+        <v>30574</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>58374</v>
+        <v>58395</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05133420153820716</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03704025290316842</v>
+        <v>0.03629387451927777</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06929452719937036</v>
+        <v>0.06931879874756544</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7316</v>
+        <v>8006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005863873182813676</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01793117818245617</v>
+        <v>0.01962155852171143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1614,19 +1614,19 @@
         <v>2057</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5525</v>
+        <v>5537</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004734254531719461</v>
+        <v>0.004734254531719462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001429828027966404</v>
+        <v>0.001451253850079917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01271893129031411</v>
+        <v>0.01274627481380797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1635,19 +1635,19 @@
         <v>4449</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1723</v>
+        <v>1349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10833</v>
+        <v>10892</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.005281356523101795</v>
+        <v>0.005281356523101796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002045400426012761</v>
+        <v>0.001601227485755865</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01285979324246528</v>
+        <v>0.01292921686350147</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6237</v>
+        <v>6606</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004422225180371659</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01528579907662418</v>
+        <v>0.01619125341916244</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3646</v>
+        <v>4877</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.001864362611015745</v>
+        <v>0.001864362611015746</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.008392272868895476</v>
+        <v>0.01122758936325261</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1706,19 +1706,19 @@
         <v>2614</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7135</v>
+        <v>7676</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003103198127781872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0007869210903247468</v>
+        <v>0.0007888108385374579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008470136669077189</v>
+        <v>0.009112535048292278</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>520698</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>505123</v>
+        <v>504431</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>532098</v>
+        <v>531660</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9478873005775819</v>
+        <v>0.9478873005775817</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9195343833567816</v>
+        <v>0.9182736311407385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9686392935142686</v>
+        <v>0.9678415774558834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>631</v>
@@ -1831,19 +1831,19 @@
         <v>468180</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>456947</v>
+        <v>455353</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>476972</v>
+        <v>476748</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9403414744382415</v>
+        <v>0.9403414744382412</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9177792154554487</v>
+        <v>0.9145790459196389</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9579995503181645</v>
+        <v>0.957550796422321</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1116</v>
@@ -1852,19 +1852,19 @@
         <v>988879</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>970544</v>
+        <v>971141</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1004247</v>
+        <v>1005196</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9442997242013536</v>
+        <v>0.9442997242013533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9267909476577274</v>
+        <v>0.9273616276655099</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9589744279585198</v>
+        <v>0.9598807960823122</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>25100</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14593</v>
+        <v>14704</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39402</v>
+        <v>39800</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0456922912685905</v>
+        <v>0.04569229126859051</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02656443369441602</v>
+        <v>0.02676731563999328</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07172750001203303</v>
+        <v>0.0724525606801841</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1902,19 +1902,19 @@
         <v>23224</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16088</v>
+        <v>15871</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32441</v>
+        <v>33514</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04664610098907709</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03231290042833426</v>
+        <v>0.0318767070425852</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06515746099914549</v>
+        <v>0.06731373611616388</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -1923,19 +1923,19 @@
         <v>48324</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34967</v>
+        <v>33580</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65140</v>
+        <v>64444</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04614576914595566</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03339087828509786</v>
+        <v>0.03206624396531702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06220368347449081</v>
+        <v>0.06153887682865298</v>
       </c>
     </row>
     <row r="21">
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10535</v>
+        <v>11265</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005354034167432912</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01917773803797483</v>
+        <v>0.02050691792700696</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1973,19 +1973,19 @@
         <v>5084</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1903</v>
+        <v>1977</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13081</v>
+        <v>15987</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01021117972294554</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003822081068620445</v>
+        <v>0.003970959999096474</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02627253203287089</v>
+        <v>0.03210938054773551</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1994,19 +1994,19 @@
         <v>8025</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3122</v>
+        <v>3175</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17383</v>
+        <v>19021</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.007663308238831347</v>
+        <v>0.007663308238831346</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002981565992407209</v>
+        <v>0.00303181393674652</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01659947909279089</v>
+        <v>0.01816312561355508</v>
       </c>
     </row>
     <row r="22">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2890</v>
+        <v>2996</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001066373986394745</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005261420616615686</v>
+        <v>0.005453910546898815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4979</v>
+        <v>5506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002801244849736029</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009999682939574499</v>
+        <v>0.01105820158446933</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2065,19 +2065,19 @@
         <v>1980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>577</v>
+        <v>680</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5357</v>
+        <v>5354</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001891198413859492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0005511756663927135</v>
+        <v>0.0006493384384712969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005115167950279162</v>
+        <v>0.00511226146172948</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>1460455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1434540</v>
+        <v>1434884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1479187</v>
+        <v>1480143</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9416591470505429</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9249496888745601</v>
+        <v>0.9251717054864257</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9537367743603478</v>
+        <v>0.9543537028124842</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2151</v>
@@ -2190,19 +2190,19 @@
         <v>1538026</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1516421</v>
+        <v>1516028</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1558527</v>
+        <v>1556765</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9151009980528934</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9022466118844448</v>
+        <v>0.9020127736598899</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9272990195887447</v>
+        <v>0.9262502847287364</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3519</v>
@@ -2211,19 +2211,19 @@
         <v>2998482</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2966613</v>
+        <v>2967234</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3024326</v>
+        <v>3023378</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9278468034506001</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9179854323694137</v>
+        <v>0.9181775923546937</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.935844087944441</v>
+        <v>0.9355507093031298</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>74824</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57825</v>
+        <v>56855</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99313</v>
+        <v>97835</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04824454355707698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0372836202479722</v>
+        <v>0.03665842627294664</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06403423699833649</v>
+        <v>0.06308145943252062</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>156</v>
@@ -2261,19 +2261,19 @@
         <v>111519</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>93961</v>
+        <v>94748</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>129751</v>
+        <v>130797</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06635230808110763</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05590544291455113</v>
+        <v>0.05637336419430827</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07719966664200416</v>
+        <v>0.07782222830565423</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>219</v>
@@ -2282,19 +2282,19 @@
         <v>186344</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>162170</v>
+        <v>162764</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>213053</v>
+        <v>216352</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0576620170961742</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05018167902489284</v>
+        <v>0.05036541975839833</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06592673992623356</v>
+        <v>0.06694761297528189</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>12274</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6348</v>
+        <v>6233</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21302</v>
+        <v>21203</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007913896788582149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00409332019629535</v>
+        <v>0.004019156185609763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01373477968102107</v>
+        <v>0.01367116821561884</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2332,19 +2332,19 @@
         <v>16890</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10707</v>
+        <v>10762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26849</v>
+        <v>26640</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01004919225024214</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006370509059504461</v>
+        <v>0.006402991724533847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01597490152159093</v>
+        <v>0.01585051942054222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -2353,19 +2353,19 @@
         <v>29164</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19621</v>
+        <v>19829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41736</v>
+        <v>42065</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009024419762395441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006071461404180303</v>
+        <v>0.00613585926747212</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01291480666452275</v>
+        <v>0.01301646242777807</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>3385</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>992</v>
+        <v>1156</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9103</v>
+        <v>9232</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002182412603797964</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0006397516586006012</v>
+        <v>0.0007455030863004955</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.005869663636114359</v>
+        <v>0.005952215581722675</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -2403,19 +2403,19 @@
         <v>14282</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8803</v>
+        <v>8856</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22445</v>
+        <v>21539</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.008497501615756785</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005237697329569456</v>
+        <v>0.005269427172519568</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01335463975520893</v>
+        <v>0.01281565356388799</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>25</v>
@@ -2424,19 +2424,19 @@
         <v>17667</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>11608</v>
+        <v>11988</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>26674</v>
+        <v>27341</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.0054667596908302</v>
+        <v>0.005466759690830202</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.003591976316518738</v>
+        <v>0.003709472476439706</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.008254077256084312</v>
+        <v>0.008460270424861993</v>
       </c>
     </row>
     <row r="28">
